--- a/Other Industries.xlsx
+++ b/Other Industries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ba650176d78d5c06/Documents/GitHub/Data Extract from Web/dataextract/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SBTi\github\pathway-database\pathway-database\pathway-explorer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{087B9646-13DB-4134-B570-78BEB40544A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3D5428-B215-47E8-8E0B-2E3DCE44614C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{889CF6B0-597D-4700-A001-EA90E2A72A8E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{889CF6B0-597D-4700-A001-EA90E2A72A8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,24 +34,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Scenario</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>Variable</t>
   </si>
   <si>
     <t>Unit</t>
   </si>
   <si>
     <t>ETP B2DS</t>
-  </si>
-  <si>
-    <t>World</t>
   </si>
   <si>
     <t>Emissions</t>
@@ -67,6 +58,9 @@
   </si>
   <si>
     <t>Output</t>
+  </si>
+  <si>
+    <t>Metric</t>
   </si>
 </sst>
 </file>
@@ -187,9 +181,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -227,7 +221,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -333,7 +327,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -475,7 +469,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -483,443 +477,438 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DBD3C58-DEB0-4604-B544-B8E9ED53A085}">
-  <dimension ref="A1:CM4"/>
+  <dimension ref="A1:CL4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:CM4"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2">
+        <v>2014</v>
+      </c>
+      <c r="E1" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F1" s="2">
+        <v>2016</v>
+      </c>
+      <c r="G1" s="2">
+        <v>2017</v>
+      </c>
+      <c r="H1" s="2">
+        <v>2018</v>
+      </c>
+      <c r="I1" s="2">
+        <v>2019</v>
+      </c>
+      <c r="J1" s="2">
+        <v>2020</v>
+      </c>
+      <c r="K1" s="2">
+        <v>2021</v>
+      </c>
+      <c r="L1" s="2">
+        <v>2022</v>
+      </c>
+      <c r="M1" s="2">
+        <v>2023</v>
+      </c>
+      <c r="N1" s="2">
+        <v>2024</v>
+      </c>
+      <c r="O1" s="2">
+        <v>2025</v>
+      </c>
+      <c r="P1" s="2">
+        <v>2026</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>2027</v>
+      </c>
+      <c r="R1" s="2">
+        <v>2028</v>
+      </c>
+      <c r="S1" s="2">
+        <v>2029</v>
+      </c>
+      <c r="T1" s="2">
+        <v>2030</v>
+      </c>
+      <c r="U1" s="2">
+        <v>2031</v>
+      </c>
+      <c r="V1" s="2">
+        <v>2032</v>
+      </c>
+      <c r="W1" s="2">
+        <v>2033</v>
+      </c>
+      <c r="X1" s="2">
+        <v>2034</v>
+      </c>
+      <c r="Y1" s="2">
+        <v>2035</v>
+      </c>
+      <c r="Z1" s="2">
+        <v>2036</v>
+      </c>
+      <c r="AA1" s="2">
+        <v>2037</v>
+      </c>
+      <c r="AB1" s="2">
+        <v>2038</v>
+      </c>
+      <c r="AC1" s="2">
+        <v>2039</v>
+      </c>
+      <c r="AD1" s="2">
+        <v>2040</v>
+      </c>
+      <c r="AE1" s="2">
+        <v>2041</v>
+      </c>
+      <c r="AF1" s="2">
+        <v>2042</v>
+      </c>
+      <c r="AG1" s="2">
+        <v>2043</v>
+      </c>
+      <c r="AH1" s="2">
+        <v>2044</v>
+      </c>
+      <c r="AI1" s="2">
+        <v>2045</v>
+      </c>
+      <c r="AJ1" s="2">
+        <v>2046</v>
+      </c>
+      <c r="AK1" s="2">
+        <v>2047</v>
+      </c>
+      <c r="AL1" s="2">
+        <v>2048</v>
+      </c>
+      <c r="AM1" s="2">
+        <v>2049</v>
+      </c>
+      <c r="AN1" s="2">
+        <v>2050</v>
+      </c>
+      <c r="AO1" s="2">
+        <v>2051</v>
+      </c>
+      <c r="AP1" s="2">
+        <v>2052</v>
+      </c>
+      <c r="AQ1" s="2">
+        <v>2053</v>
+      </c>
+      <c r="AR1" s="2">
+        <v>2054</v>
+      </c>
+      <c r="AS1" s="2">
+        <v>2055</v>
+      </c>
+      <c r="AT1" s="2">
+        <v>2056</v>
+      </c>
+      <c r="AU1" s="2">
+        <v>2057</v>
+      </c>
+      <c r="AV1" s="2">
+        <v>2058</v>
+      </c>
+      <c r="AW1" s="2">
+        <v>2059</v>
+      </c>
+      <c r="AX1" s="3">
+        <v>2060</v>
+      </c>
+      <c r="AY1" s="4">
+        <v>2061</v>
+      </c>
+      <c r="AZ1" s="4">
+        <v>2062</v>
+      </c>
+      <c r="BA1" s="4">
+        <v>2063</v>
+      </c>
+      <c r="BB1" s="4">
+        <v>2064</v>
+      </c>
+      <c r="BC1" s="4">
+        <v>2065</v>
+      </c>
+      <c r="BD1" s="4">
+        <v>2066</v>
+      </c>
+      <c r="BE1" s="4">
+        <v>2067</v>
+      </c>
+      <c r="BF1" s="4">
+        <v>2068</v>
+      </c>
+      <c r="BG1" s="4">
+        <v>2069</v>
+      </c>
+      <c r="BH1" s="4">
+        <v>2070</v>
+      </c>
+      <c r="BI1" s="4">
+        <v>2071</v>
+      </c>
+      <c r="BJ1" s="4">
+        <v>2072</v>
+      </c>
+      <c r="BK1" s="4">
+        <v>2073</v>
+      </c>
+      <c r="BL1" s="4">
+        <v>2074</v>
+      </c>
+      <c r="BM1" s="4">
+        <v>2075</v>
+      </c>
+      <c r="BN1" s="4">
+        <v>2076</v>
+      </c>
+      <c r="BO1" s="4">
+        <v>2077</v>
+      </c>
+      <c r="BP1" s="4">
+        <v>2078</v>
+      </c>
+      <c r="BQ1" s="4">
+        <v>2079</v>
+      </c>
+      <c r="BR1" s="4">
+        <v>2080</v>
+      </c>
+      <c r="BS1" s="4">
+        <v>2081</v>
+      </c>
+      <c r="BT1" s="4">
+        <v>2082</v>
+      </c>
+      <c r="BU1" s="4">
+        <v>2083</v>
+      </c>
+      <c r="BV1" s="4">
+        <v>2084</v>
+      </c>
+      <c r="BW1" s="4">
+        <v>2085</v>
+      </c>
+      <c r="BX1" s="4">
+        <v>2086</v>
+      </c>
+      <c r="BY1" s="4">
+        <v>2087</v>
+      </c>
+      <c r="BZ1" s="4">
+        <v>2088</v>
+      </c>
+      <c r="CA1" s="4">
+        <v>2089</v>
+      </c>
+      <c r="CB1" s="4">
+        <v>2090</v>
+      </c>
+      <c r="CC1" s="4">
+        <v>2091</v>
+      </c>
+      <c r="CD1" s="4">
+        <v>2092</v>
+      </c>
+      <c r="CE1" s="4">
+        <v>2093</v>
+      </c>
+      <c r="CF1" s="4">
+        <v>2094</v>
+      </c>
+      <c r="CG1" s="4">
+        <v>2095</v>
+      </c>
+      <c r="CH1" s="4">
+        <v>2096</v>
+      </c>
+      <c r="CI1" s="4">
+        <v>2097</v>
+      </c>
+      <c r="CJ1" s="4">
+        <v>2098</v>
+      </c>
+      <c r="CK1" s="4">
+        <v>2099</v>
+      </c>
+      <c r="CL1" s="4">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:90" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2">
-        <v>2014</v>
-      </c>
-      <c r="F1" s="2">
-        <v>2015</v>
-      </c>
-      <c r="G1" s="2">
-        <v>2016</v>
-      </c>
-      <c r="H1" s="2">
-        <v>2017</v>
-      </c>
-      <c r="I1" s="2">
-        <v>2018</v>
-      </c>
-      <c r="J1" s="2">
-        <v>2019</v>
-      </c>
-      <c r="K1" s="2">
-        <v>2020</v>
-      </c>
-      <c r="L1" s="2">
-        <v>2021</v>
-      </c>
-      <c r="M1" s="2">
-        <v>2022</v>
-      </c>
-      <c r="N1" s="2">
-        <v>2023</v>
-      </c>
-      <c r="O1" s="2">
-        <v>2024</v>
-      </c>
-      <c r="P1" s="2">
-        <v>2025</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>2026</v>
-      </c>
-      <c r="R1" s="2">
-        <v>2027</v>
-      </c>
-      <c r="S1" s="2">
-        <v>2028</v>
-      </c>
-      <c r="T1" s="2">
-        <v>2029</v>
-      </c>
-      <c r="U1" s="2">
-        <v>2030</v>
-      </c>
-      <c r="V1" s="2">
-        <v>2031</v>
-      </c>
-      <c r="W1" s="2">
-        <v>2032</v>
-      </c>
-      <c r="X1" s="2">
-        <v>2033</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>2034</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>2035</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>2036</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>2037</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>2038</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>2039</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>2040</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>2041</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>2042</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>2043</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>2044</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>2045</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>2046</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>2047</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>2048</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>2049</v>
-      </c>
-      <c r="AO1" s="2">
-        <v>2050</v>
-      </c>
-      <c r="AP1" s="2">
-        <v>2051</v>
-      </c>
-      <c r="AQ1" s="2">
-        <v>2052</v>
-      </c>
-      <c r="AR1" s="2">
-        <v>2053</v>
-      </c>
-      <c r="AS1" s="2">
-        <v>2054</v>
-      </c>
-      <c r="AT1" s="2">
-        <v>2055</v>
-      </c>
-      <c r="AU1" s="2">
-        <v>2056</v>
-      </c>
-      <c r="AV1" s="2">
-        <v>2057</v>
-      </c>
-      <c r="AW1" s="2">
-        <v>2058</v>
-      </c>
-      <c r="AX1" s="2">
-        <v>2059</v>
-      </c>
-      <c r="AY1" s="3">
-        <v>2060</v>
-      </c>
-      <c r="AZ1" s="4">
-        <v>2061</v>
-      </c>
-      <c r="BA1" s="4">
-        <v>2062</v>
-      </c>
-      <c r="BB1" s="4">
-        <v>2063</v>
-      </c>
-      <c r="BC1" s="4">
-        <v>2064</v>
-      </c>
-      <c r="BD1" s="4">
-        <v>2065</v>
-      </c>
-      <c r="BE1" s="4">
-        <v>2066</v>
-      </c>
-      <c r="BF1" s="4">
-        <v>2067</v>
-      </c>
-      <c r="BG1" s="4">
-        <v>2068</v>
-      </c>
-      <c r="BH1" s="4">
-        <v>2069</v>
-      </c>
-      <c r="BI1" s="4">
-        <v>2070</v>
-      </c>
-      <c r="BJ1" s="4">
-        <v>2071</v>
-      </c>
-      <c r="BK1" s="4">
-        <v>2072</v>
-      </c>
-      <c r="BL1" s="4">
-        <v>2073</v>
-      </c>
-      <c r="BM1" s="4">
-        <v>2074</v>
-      </c>
-      <c r="BN1" s="4">
-        <v>2075</v>
-      </c>
-      <c r="BO1" s="4">
-        <v>2076</v>
-      </c>
-      <c r="BP1" s="4">
-        <v>2077</v>
-      </c>
-      <c r="BQ1" s="4">
-        <v>2078</v>
-      </c>
-      <c r="BR1" s="4">
-        <v>2079</v>
-      </c>
-      <c r="BS1" s="4">
-        <v>2080</v>
-      </c>
-      <c r="BT1" s="4">
-        <v>2081</v>
-      </c>
-      <c r="BU1" s="4">
-        <v>2082</v>
-      </c>
-      <c r="BV1" s="4">
-        <v>2083</v>
-      </c>
-      <c r="BW1" s="4">
-        <v>2084</v>
-      </c>
-      <c r="BX1" s="4">
-        <v>2085</v>
-      </c>
-      <c r="BY1" s="4">
-        <v>2086</v>
-      </c>
-      <c r="BZ1" s="4">
-        <v>2087</v>
-      </c>
-      <c r="CA1" s="4">
-        <v>2088</v>
-      </c>
-      <c r="CB1" s="4">
-        <v>2089</v>
-      </c>
-      <c r="CC1" s="4">
-        <v>2090</v>
-      </c>
-      <c r="CD1" s="4">
-        <v>2091</v>
-      </c>
-      <c r="CE1" s="4">
-        <v>2092</v>
-      </c>
-      <c r="CF1" s="4">
-        <v>2093</v>
-      </c>
-      <c r="CG1" s="4">
-        <v>2094</v>
-      </c>
-      <c r="CH1" s="4">
-        <v>2095</v>
-      </c>
-      <c r="CI1" s="4">
-        <v>2096</v>
-      </c>
-      <c r="CJ1" s="4">
-        <v>2097</v>
-      </c>
-      <c r="CK1" s="4">
-        <v>2098</v>
-      </c>
-      <c r="CL1" s="4">
-        <v>2099</v>
-      </c>
-      <c r="CM1" s="4">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>7</v>
+      <c r="D2" s="6">
+        <v>2377.1</v>
       </c>
       <c r="E2" s="6">
-        <v>2377.1</v>
+        <v>2326.38</v>
       </c>
       <c r="F2" s="6">
-        <v>2326.38</v>
+        <v>2275.66</v>
       </c>
       <c r="G2" s="6">
-        <v>2275.66</v>
+        <v>2224.94</v>
       </c>
       <c r="H2" s="6">
-        <v>2224.94</v>
+        <v>2174.2199999999998</v>
       </c>
       <c r="I2" s="6">
-        <v>2174.2199999999998</v>
+        <v>2123.5</v>
       </c>
       <c r="J2" s="6">
-        <v>2123.5</v>
+        <v>2072.7800000000002</v>
       </c>
       <c r="K2" s="6">
-        <v>2072.7800000000002</v>
+        <v>2022.06</v>
       </c>
       <c r="L2" s="6">
-        <v>2022.06</v>
+        <v>1971.34</v>
       </c>
       <c r="M2" s="6">
-        <v>1971.34</v>
+        <v>1920.62</v>
       </c>
       <c r="N2" s="6">
-        <v>1920.62</v>
+        <v>1869.9</v>
       </c>
       <c r="O2" s="6">
-        <v>1869.9</v>
+        <v>1819.18</v>
       </c>
       <c r="P2" s="6">
-        <v>1819.18</v>
+        <v>1778</v>
       </c>
       <c r="Q2" s="6">
-        <v>1778</v>
+        <v>1736.82</v>
       </c>
       <c r="R2" s="6">
-        <v>1736.82</v>
+        <v>1695.64</v>
       </c>
       <c r="S2" s="6">
-        <v>1695.64</v>
+        <v>1654.47</v>
       </c>
       <c r="T2" s="6">
-        <v>1654.47</v>
+        <v>1613.29</v>
       </c>
       <c r="U2" s="6">
-        <v>1613.29</v>
+        <v>1595.52</v>
       </c>
       <c r="V2" s="6">
-        <v>1595.52</v>
+        <v>1577.75</v>
       </c>
       <c r="W2" s="6">
-        <v>1577.75</v>
+        <v>1559.99</v>
       </c>
       <c r="X2" s="6">
-        <v>1559.99</v>
+        <v>1542.22</v>
       </c>
       <c r="Y2" s="6">
-        <v>1542.22</v>
+        <v>1524.45</v>
       </c>
       <c r="Z2" s="6">
-        <v>1524.45</v>
+        <v>1508.93</v>
       </c>
       <c r="AA2" s="6">
-        <v>1508.93</v>
+        <v>1493.4</v>
       </c>
       <c r="AB2" s="6">
-        <v>1493.4</v>
+        <v>1477.87</v>
       </c>
       <c r="AC2" s="6">
-        <v>1477.87</v>
+        <v>1462.35</v>
       </c>
       <c r="AD2" s="6">
-        <v>1462.35</v>
+        <v>1446.82</v>
       </c>
       <c r="AE2" s="6">
-        <v>1446.82</v>
+        <v>1418.68</v>
       </c>
       <c r="AF2" s="6">
-        <v>1418.68</v>
+        <v>1390.55</v>
       </c>
       <c r="AG2" s="6">
-        <v>1390.55</v>
+        <v>1362.41</v>
       </c>
       <c r="AH2" s="6">
-        <v>1362.41</v>
+        <v>1334.27</v>
       </c>
       <c r="AI2" s="6">
-        <v>1334.27</v>
+        <v>1306.1400000000001</v>
       </c>
       <c r="AJ2" s="6">
-        <v>1306.1400000000001</v>
+        <v>1281.5899999999999</v>
       </c>
       <c r="AK2" s="6">
-        <v>1281.5899999999999</v>
+        <v>1257.04</v>
       </c>
       <c r="AL2" s="6">
-        <v>1257.04</v>
+        <v>1232.5</v>
       </c>
       <c r="AM2" s="6">
-        <v>1232.5</v>
+        <v>1207.95</v>
       </c>
       <c r="AN2" s="6">
-        <v>1207.95</v>
+        <v>1183.4000000000001</v>
       </c>
       <c r="AO2" s="6">
-        <v>1183.4000000000001</v>
+        <v>1158.82</v>
       </c>
       <c r="AP2" s="6">
-        <v>1158.82</v>
+        <v>1134.23</v>
       </c>
       <c r="AQ2" s="6">
-        <v>1134.23</v>
+        <v>1109.6500000000001</v>
       </c>
       <c r="AR2" s="6">
-        <v>1109.6500000000001</v>
+        <v>1085.06</v>
       </c>
       <c r="AS2" s="6">
-        <v>1085.06</v>
+        <v>1060.48</v>
       </c>
       <c r="AT2" s="6">
-        <v>1060.48</v>
+        <v>1037.0999999999999</v>
       </c>
       <c r="AU2" s="6">
-        <v>1037.0999999999999</v>
-      </c>
-      <c r="AV2" s="6">
         <v>1013.73</v>
       </c>
+      <c r="AV2" s="7">
+        <v>990.35</v>
+      </c>
       <c r="AW2" s="7">
-        <v>990.35</v>
-      </c>
-      <c r="AX2" s="7">
         <v>966.97</v>
       </c>
-      <c r="AY2" s="8">
+      <c r="AX2" s="8">
         <v>943.6</v>
       </c>
+      <c r="AY2" s="9"/>
       <c r="AZ2" s="9"/>
       <c r="BA2" s="9"/>
       <c r="BB2" s="9"/>
@@ -959,162 +948,159 @@
       <c r="CJ2" s="9"/>
       <c r="CK2" s="9"/>
       <c r="CL2" s="9"/>
-      <c r="CM2" s="9"/>
     </row>
-    <row r="3" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="D3" s="6">
+        <v>15992.99</v>
       </c>
       <c r="E3" s="6">
-        <v>15992.99</v>
+        <v>16029.23</v>
       </c>
       <c r="F3" s="6">
-        <v>16029.23</v>
+        <v>16065.47</v>
       </c>
       <c r="G3" s="6">
-        <v>16065.47</v>
+        <v>16101.7</v>
       </c>
       <c r="H3" s="6">
-        <v>16101.7</v>
+        <v>16137.94</v>
       </c>
       <c r="I3" s="6">
-        <v>16137.94</v>
+        <v>16174.17</v>
       </c>
       <c r="J3" s="6">
-        <v>16174.17</v>
+        <v>16210.41</v>
       </c>
       <c r="K3" s="6">
-        <v>16210.41</v>
+        <v>16246.64</v>
       </c>
       <c r="L3" s="6">
-        <v>16246.64</v>
+        <v>16282.88</v>
       </c>
       <c r="M3" s="6">
-        <v>16282.88</v>
+        <v>16319.11</v>
       </c>
       <c r="N3" s="6">
-        <v>16319.11</v>
+        <v>16355.35</v>
       </c>
       <c r="O3" s="6">
-        <v>16355.35</v>
+        <v>16391.580000000002</v>
       </c>
       <c r="P3" s="6">
-        <v>16391.580000000002</v>
+        <v>16471.14</v>
       </c>
       <c r="Q3" s="6">
-        <v>16471.14</v>
+        <v>16550.7</v>
       </c>
       <c r="R3" s="6">
-        <v>16550.7</v>
+        <v>16630.259999999998</v>
       </c>
       <c r="S3" s="6">
-        <v>16630.259999999998</v>
+        <v>16709.82</v>
       </c>
       <c r="T3" s="6">
-        <v>16709.82</v>
+        <v>16789.37</v>
       </c>
       <c r="U3" s="6">
-        <v>16789.37</v>
+        <v>17032.48</v>
       </c>
       <c r="V3" s="6">
-        <v>17032.48</v>
+        <v>17275.580000000002</v>
       </c>
       <c r="W3" s="6">
-        <v>17275.580000000002</v>
+        <v>17518.68</v>
       </c>
       <c r="X3" s="6">
-        <v>17518.68</v>
+        <v>17761.78</v>
       </c>
       <c r="Y3" s="6">
-        <v>17761.78</v>
+        <v>18004.88</v>
       </c>
       <c r="Z3" s="6">
-        <v>18004.88</v>
+        <v>18311.34</v>
       </c>
       <c r="AA3" s="6">
-        <v>18311.34</v>
+        <v>18617.810000000001</v>
       </c>
       <c r="AB3" s="6">
-        <v>18617.810000000001</v>
+        <v>18924.27</v>
       </c>
       <c r="AC3" s="6">
-        <v>18924.27</v>
+        <v>19230.73</v>
       </c>
       <c r="AD3" s="6">
-        <v>19230.73</v>
+        <v>19537.189999999999</v>
       </c>
       <c r="AE3" s="6">
-        <v>19537.189999999999</v>
+        <v>19727.3</v>
       </c>
       <c r="AF3" s="6">
-        <v>19727.3</v>
+        <v>19917.41</v>
       </c>
       <c r="AG3" s="6">
-        <v>19917.41</v>
+        <v>20107.52</v>
       </c>
       <c r="AH3" s="6">
-        <v>20107.52</v>
+        <v>20297.64</v>
       </c>
       <c r="AI3" s="6">
-        <v>20297.64</v>
+        <v>20487.75</v>
       </c>
       <c r="AJ3" s="6">
-        <v>20487.75</v>
+        <v>20774.82</v>
       </c>
       <c r="AK3" s="6">
-        <v>20774.82</v>
+        <v>21061.88</v>
       </c>
       <c r="AL3" s="6">
-        <v>21061.88</v>
+        <v>21348.95</v>
       </c>
       <c r="AM3" s="6">
-        <v>21348.95</v>
+        <v>21636.02</v>
       </c>
       <c r="AN3" s="6">
-        <v>21636.02</v>
+        <v>21923.09</v>
       </c>
       <c r="AO3" s="6">
-        <v>21923.09</v>
+        <v>22252.44</v>
       </c>
       <c r="AP3" s="6">
-        <v>22252.44</v>
+        <v>22581.79</v>
       </c>
       <c r="AQ3" s="6">
-        <v>22581.79</v>
+        <v>22911.13</v>
       </c>
       <c r="AR3" s="6">
-        <v>22911.13</v>
+        <v>23240.48</v>
       </c>
       <c r="AS3" s="6">
-        <v>23240.48</v>
+        <v>23569.83</v>
       </c>
       <c r="AT3" s="6">
-        <v>23569.83</v>
+        <v>23953.05</v>
       </c>
       <c r="AU3" s="6">
-        <v>23953.05</v>
+        <v>24336.27</v>
       </c>
       <c r="AV3" s="6">
-        <v>24336.27</v>
+        <v>24719.48</v>
       </c>
       <c r="AW3" s="6">
-        <v>24719.48</v>
-      </c>
-      <c r="AX3" s="6">
         <v>25102.7</v>
       </c>
-      <c r="AY3" s="10">
+      <c r="AX3" s="10">
         <v>25485.919999999998</v>
       </c>
+      <c r="AY3" s="9"/>
       <c r="AZ3" s="9"/>
       <c r="BA3" s="9"/>
       <c r="BB3" s="9"/>
@@ -1154,162 +1140,159 @@
       <c r="CJ3" s="9"/>
       <c r="CK3" s="9"/>
       <c r="CL3" s="9"/>
-      <c r="CM3" s="9"/>
     </row>
-    <row r="4" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="D4" s="6">
+        <v>28215.33</v>
       </c>
       <c r="E4" s="6">
-        <v>28215.33</v>
+        <v>27532.03</v>
       </c>
       <c r="F4" s="6">
-        <v>27532.03</v>
+        <v>26848.73</v>
       </c>
       <c r="G4" s="6">
-        <v>26848.73</v>
+        <v>26165.43</v>
       </c>
       <c r="H4" s="6">
-        <v>26165.43</v>
+        <v>25482.13</v>
       </c>
       <c r="I4" s="6">
-        <v>25482.13</v>
+        <v>24798.84</v>
       </c>
       <c r="J4" s="6">
-        <v>24798.84</v>
+        <v>24115.54</v>
       </c>
       <c r="K4" s="6">
-        <v>24115.54</v>
+        <v>23432.240000000002</v>
       </c>
       <c r="L4" s="6">
-        <v>23432.240000000002</v>
+        <v>22748.94</v>
       </c>
       <c r="M4" s="6">
-        <v>22748.94</v>
+        <v>22065.64</v>
       </c>
       <c r="N4" s="6">
-        <v>22065.64</v>
+        <v>21382.34</v>
       </c>
       <c r="O4" s="6">
-        <v>21382.34</v>
+        <v>20699.04</v>
       </c>
       <c r="P4" s="6">
-        <v>20699.04</v>
+        <v>20389.41</v>
       </c>
       <c r="Q4" s="6">
-        <v>20389.41</v>
+        <v>20079.78</v>
       </c>
       <c r="R4" s="6">
-        <v>20079.78</v>
+        <v>19770.14</v>
       </c>
       <c r="S4" s="6">
-        <v>19770.14</v>
+        <v>19460.509999999998</v>
       </c>
       <c r="T4" s="6">
-        <v>19460.509999999998</v>
+        <v>19150.88</v>
       </c>
       <c r="U4" s="6">
-        <v>19150.88</v>
+        <v>19364.12</v>
       </c>
       <c r="V4" s="6">
-        <v>19364.12</v>
+        <v>19577.36</v>
       </c>
       <c r="W4" s="6">
-        <v>19577.36</v>
+        <v>19790.61</v>
       </c>
       <c r="X4" s="6">
-        <v>19790.61</v>
+        <v>20003.849999999999</v>
       </c>
       <c r="Y4" s="6">
-        <v>20003.849999999999</v>
+        <v>20217.09</v>
       </c>
       <c r="Z4" s="6">
-        <v>20217.09</v>
+        <v>20509.02</v>
       </c>
       <c r="AA4" s="6">
-        <v>20509.02</v>
+        <v>20800.95</v>
       </c>
       <c r="AB4" s="6">
-        <v>20800.95</v>
+        <v>21092.880000000001</v>
       </c>
       <c r="AC4" s="6">
-        <v>21092.880000000001</v>
+        <v>21384.799999999999</v>
       </c>
       <c r="AD4" s="6">
-        <v>21384.799999999999</v>
+        <v>21676.73</v>
       </c>
       <c r="AE4" s="6">
-        <v>21676.73</v>
+        <v>21918.18</v>
       </c>
       <c r="AF4" s="6">
-        <v>21918.18</v>
+        <v>22159.63</v>
       </c>
       <c r="AG4" s="6">
-        <v>22159.63</v>
+        <v>22401.07</v>
       </c>
       <c r="AH4" s="6">
-        <v>22401.07</v>
+        <v>22642.52</v>
       </c>
       <c r="AI4" s="6">
-        <v>22642.52</v>
+        <v>22883.96</v>
       </c>
       <c r="AJ4" s="6">
-        <v>22883.96</v>
+        <v>23399.45</v>
       </c>
       <c r="AK4" s="6">
-        <v>23399.45</v>
+        <v>23914.93</v>
       </c>
       <c r="AL4" s="6">
-        <v>23914.93</v>
+        <v>24430.41</v>
       </c>
       <c r="AM4" s="6">
-        <v>24430.41</v>
+        <v>24945.89</v>
       </c>
       <c r="AN4" s="6">
-        <v>24945.89</v>
+        <v>25461.37</v>
       </c>
       <c r="AO4" s="6">
-        <v>25461.37</v>
+        <v>25790.52</v>
       </c>
       <c r="AP4" s="6">
-        <v>25790.52</v>
+        <v>26119.67</v>
       </c>
       <c r="AQ4" s="6">
-        <v>26119.67</v>
+        <v>26448.81</v>
       </c>
       <c r="AR4" s="6">
-        <v>26448.81</v>
+        <v>26777.96</v>
       </c>
       <c r="AS4" s="6">
-        <v>26777.96</v>
+        <v>27107.1</v>
       </c>
       <c r="AT4" s="6">
-        <v>27107.1</v>
+        <v>27920.560000000001</v>
       </c>
       <c r="AU4" s="6">
-        <v>27920.560000000001</v>
+        <v>28734.02</v>
       </c>
       <c r="AV4" s="6">
-        <v>28734.02</v>
+        <v>29547.48</v>
       </c>
       <c r="AW4" s="6">
-        <v>29547.48</v>
-      </c>
-      <c r="AX4" s="6">
         <v>30360.94</v>
       </c>
-      <c r="AY4" s="10">
+      <c r="AX4" s="10">
         <v>31174.400000000001</v>
       </c>
+      <c r="AY4" s="9"/>
       <c r="AZ4" s="9"/>
       <c r="BA4" s="9"/>
       <c r="BB4" s="9"/>
@@ -1349,7 +1332,6 @@
       <c r="CJ4" s="9"/>
       <c r="CK4" s="9"/>
       <c r="CL4" s="9"/>
-      <c r="CM4" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
